--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,194 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sophea</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Oudom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Phnom Penh, Cambodia</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sok </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cheapanha</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>panha@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Som</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>soDana</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>dana@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SengHeang</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Heang@gmail.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,53 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sophea</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oudom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>#20 st99 Songkat BeoungTrabek Khan Chamkarmon Phnom Penh</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sophea</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oudom</t>
+          <t>SengHeang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sopheaoudom@gmail.com</t>
+          <t>Heang@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>#20 st99 Songkat BeoungTrabek Khan Chamkarmon Phnom Penh</t>
+          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sophea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SengHeang</t>
+          <t>Oudom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Heang@gmail.com</t>
+          <t>sopheaoudom@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,9 +509,46 @@
           <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12345</t>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sok </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cheapanha</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
     </row>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,6 @@
           <t>City</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Zip Code</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,48 +500,6 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>Phnom Penh, Cambodia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sok </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cheapanha</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>Phnom Penh, Cambodia</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+          <t>Home 20 Street 99 Songkat BoeungTrabek Khan Chamkarmon Phnom Penh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,48 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sophea</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Oudom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Home 20 Street 99 Songkat BoeungTrabek Khan Chamkarmon Phnom Penh</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Phnom Penh, Cambodia</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,180 @@
           <t>City</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>SEL</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Tran Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Loc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sophea</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oudom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>67017</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>21:36:02</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>B351</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sok </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cheapanha</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>panha@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19144</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>21:44:01</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B184</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -536,22 +536,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>67017</t>
+          <t>43674</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21:36:02</t>
+          <t>21:02:05</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B351</t>
+          <t>B144</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -568,27 +568,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sok </t>
+          <t>Som</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cheapanha</t>
+          <t>soDana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>panha@gmail.com</t>
+          <t>sopheaoudom@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -608,22 +608,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19144</t>
+          <t>52731</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21:44:01</t>
+          <t>21:05:05</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>B184</t>
+          <t>B473</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,10 +504,8 @@
           <t>Oudom</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C2" t="n">
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -576,10 +574,8 @@
           <t>soDana</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C3" t="n">
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -632,6 +628,148 @@
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sok </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cheapanha</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>43369</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>21:10:29</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B448</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SengHeang</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>44943</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>22:20:04</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B429</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,16 +496,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sophea</t>
+          <t xml:space="preserve">Sok </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oudom</t>
+          <t>cheapanha</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,22 +534,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>43674</t>
+          <t>43369</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21:02:05</t>
+          <t>21:10:29</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B144</t>
+          <t>B448</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -566,20 +566,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Som</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>soDana</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
+          <t>SengHeang</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -594,7 +596,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Homw 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -604,22 +606,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>52731</t>
+          <t>44943</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21:05:05</t>
+          <t>22:20:04</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>B473</t>
+          <t>B429</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -636,16 +638,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sok </t>
+          <t>Sophea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cheapanha</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
+          <t>Oudom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -674,22 +678,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>43369</t>
+          <t>43674</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>21:02:05</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>B448</t>
+          <t>B144</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -706,70 +710,142 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Som</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SengHeang</t>
+          <t>soDana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>52731</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>19/03/2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>21:05:05</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B473</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Heng</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lengLong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>long@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>44943</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>22:20:04</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>B429</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31724</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>22/03/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>22:10:08</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B809</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,16 +496,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sok </t>
+          <t>Sophea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cheapanha</t>
+          <t>Oudom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -534,22 +534,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>43369</t>
+          <t>43674</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>21:02:05</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B448</t>
+          <t>B144</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -566,22 +566,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Som</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SengHeang</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>soDana</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -606,22 +604,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>44943</t>
+          <t>52731</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22:20:04</t>
+          <t>21:05:05</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>B429</t>
+          <t>B473</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -638,18 +636,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sophea</t>
+          <t xml:space="preserve">Sok </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oudom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>cheapanha</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -678,22 +674,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>43674</t>
+          <t>43369</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21:02:05</t>
+          <t>21:10:29</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>B144</t>
+          <t>B448</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -710,22 +706,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Som</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>soDana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+          <t>SengHeang</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -750,22 +744,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>52731</t>
+          <t>44943</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21:05:05</t>
+          <t>22:20:04</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>B473</t>
+          <t>B429</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -787,65 +781,137 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>engLong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phnom Penh, Cambodia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>99137</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>23:13:39</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B681</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Heng</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>lengLong</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>long@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sopheaoudom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>31724</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>22/03/2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>22:10:08</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>B809</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>99137</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>23:13:39</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>B681</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Royal University of Phnom Penh</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,150 +773,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Heng</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>engLong</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Phnom Penh, Cambodia</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>99137</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23:13:39</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>B681</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Heng</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>lengLong</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sopheaoudom@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Home 20 Street 99 Songkat BeoungTrabek khan Chamkarmon Phnom Penh Cambodia</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Phnom Penh, Cambodia</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>99137</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>23:13:39</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>B681</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Royal University of Phnom Penh</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sophea</t>
+          <t>Name0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oudom</t>
+          <t>Surname0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,47 +516,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dom@gmail.com</t>
+          <t>email0@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rupp</t>
+          <t>School0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>St.99 Hm20</t>
+          <t>St 99 Hm20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Penh</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>90211</t>
+          <t>92590</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22:34:31</t>
+          <t>21:08:41</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B115</t>
+          <t>B238</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Rupp</t>
+          <t>School0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Som</t>
+          <t>Name1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>soDana</t>
+          <t>Surname1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,50 +588,194 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dana@gmail.com</t>
+          <t>email1@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rupp</t>
+          <t>School1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>St.99 Hm20</t>
+          <t>St 99 Hm20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Penh</t>
+          <t>Battambang</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>53206</t>
+          <t>78134</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22:35:03</t>
+          <t>21:09:28</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>B624</t>
+          <t>B710</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Rupp</t>
+          <t>School1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Name3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Surname3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>email3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>School3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phnom Penh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>57156</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>21:17:35</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B124</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>School3</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Name4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Surname4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>email4@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>School4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phnom Penh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>68762</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>21:17:54</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B249</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>School4</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,10 +504,8 @@
           <t>Surname0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="C2" t="n">
+        <v>21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -576,10 +574,8 @@
           <t>Surname1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C3" t="n">
+        <v>22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -648,10 +644,8 @@
           <t>Surname3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C4" t="n">
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -720,10 +714,8 @@
           <t>Surname4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C5" t="n">
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -776,6 +768,78 @@
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Name5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Username5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>email0@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>School0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Battambang</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23123</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>21:57:14</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B617</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>School0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -791,17 +791,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>email0@gmail.com</t>
+          <t>email5@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>School0</t>
+          <t>School5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -811,32 +811,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Battambang</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23123</t>
+          <t>57906</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21:57:14</t>
+          <t>21:32:07</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>B617</t>
+          <t>B330</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>School0</t>
+          <t>School5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,30 +464,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Image Filename</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>SEL</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Tran Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Loc</t>
         </is>
@@ -501,11 +506,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surname0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
+          <t>Username0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -529,35 +536,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Siem Reap</t>
+          <t>Battambang</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>92590</t>
+          <t>Name0_Username0_20250422_225605.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>81991</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21:08:41</t>
+          <t>22/04/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B238</t>
+          <t>22:56:05</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>B821</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>School0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -571,15 +583,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surname1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
+          <t>UserName1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,242 +618,35 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78134</t>
+          <t>Name1_UserName1_20250422_225703.png</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>43575</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21:09:28</t>
+          <t>22/04/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>B710</t>
+          <t>22:57:03</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>B944</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>School1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Name3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Surname3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>email3@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>School3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>St 99 Hm20</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>57156</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>21:17:35</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>B124</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>School3</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Name4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Surname4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>email4@gmail.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>School4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>St 99 Hm20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>68762</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>21:17:54</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>B249</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>School4</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Name5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Username5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>email5@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>School5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>St 99 Hm20</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Siem Reap</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>57906</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>21:32:07</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>B330</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>School5</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +652,237 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UserName2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>email2@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>School2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phnom Penh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Name2_UserName2_20250427_205851.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>16961</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>20:58:51</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B722</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>School2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Name3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UserName3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>email3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>School3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phnom Penh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Name3_UserName3_20250427_210248.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>82043</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21:02:48</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>B435</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>School3</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Name4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UserName4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>email4@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>School4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>St 99 Hm20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Siem Reap</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Name4_UserName4_20250427_213226.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>25769</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>21:32:26</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B344</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>School4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -509,10 +509,8 @@
           <t>Username0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C2" t="n">
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -586,10 +584,8 @@
           <t>UserName1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C3" t="n">
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -663,10 +659,8 @@
           <t>UserName2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C4" t="n">
+        <v>23</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -740,10 +734,8 @@
           <t>UserName3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C5" t="n">
+        <v>25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -819,12 +811,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -844,32 +836,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Siem Reap</t>
+          <t>Battambang</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Name4_UserName4_20250427_213226.jpg</t>
+          <t>Name4_UserName4_20250430_202737.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>25769</t>
+          <t>58976</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>27/04/2025</t>
+          <t>30/04/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21:32:26</t>
+          <t>20:27:37</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>B344</t>
+          <t>B674</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,8 +509,10 @@
           <t>Username0</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>23</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,27 +541,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Name0_Username0_20250422_225605.jpg</t>
+          <t>image.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>81991</t>
+          <t>74708</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>03/05/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>22:56:05</t>
+          <t>14:43:48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>B821</t>
+          <t>B486</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -581,15 +583,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UserName1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
+          <t>Username1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -609,32 +613,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Battambang</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Name1_UserName1_20250422_225703.png</t>
+          <t>image.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>43575</t>
+          <t>86035</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>03/05/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>22:57:03</t>
+          <t>15:32:37</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>B944</t>
+          <t>B506</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -656,15 +660,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UserName2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
+          <t>Username2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -684,32 +690,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Battambang</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Name2_UserName2_20250427_205851.jpg</t>
+          <t>image.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>50385</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>27/04/2025</t>
+          <t>03/05/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20:58:51</t>
+          <t>15:43:22</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>B722</t>
+          <t>B162</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -731,11 +737,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UserName3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
+          <t>Username3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,32 +767,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Name3_UserName3_20250427_210248.jpg</t>
+          <t>dom.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>82043</t>
+          <t>89483</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>27/04/2025</t>
+          <t>03/05/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21:02:48</t>
+          <t>21:19:48</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B435</t>
+          <t>B724</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -793,83 +801,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Name4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>UserName4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>email4@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>School4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>St 99 Hm20</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Battambang</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Name4_UserName4_20250430_202737.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>58976</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>30/04/2025</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>20:27:37</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>B674</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>School4</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -509,10 +509,8 @@
           <t>Username0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="C2" t="n">
+        <v>21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -586,10 +584,8 @@
           <t>Username1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C3" t="n">
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -663,10 +659,8 @@
           <t>Username2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C4" t="n">
+        <v>23</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -737,17 +731,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Username3</t>
+          <t>UserName3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -767,32 +761,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Siem Reap</t>
+          <t>Battambang</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>dom.jpg</t>
+          <t>image.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>89483</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>03/05/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21:19:48</t>
+          <t>14:46:19</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B724</t>
+          <t>B631</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -731,17 +731,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UserName3</t>
+          <t>Username3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -766,27 +766,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>image.jpg</t>
+          <t>dom.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29775</t>
+          <t>33993</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14:46:19</t>
+          <t>21:21:14</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B631</t>
+          <t>B218</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -771,22 +771,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>33993</t>
+          <t>16694</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>11/05/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21:21:14</t>
+          <t>11:50:42</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B218</t>
+          <t>B645</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Battambang</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16694</t>
+          <t>25605</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11:50:42</t>
+          <t>21:22:22</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B645</t>
+          <t>B402</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">

--- a/static/students.xlsx
+++ b/static/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,12 +651,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Name2</t>
+          <t>Name3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Username2</t>
+          <t>Username3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -669,12 +669,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>email2@gmail.com</t>
+          <t>email3@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>School2</t>
+          <t>School3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,117 +684,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Battambang</t>
+          <t>Siem Reap</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>image.jpg</t>
+          <t>dom.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50385</t>
+          <t>25605</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>03/05/2025</t>
+          <t>11/05/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15:43:22</t>
+          <t>21:22:22</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>B162</t>
+          <t>B402</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>School2</t>
+          <t>School3</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Name3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Username3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>email3@gmail.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>School3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>St 99 Hm20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Siem Reap</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>dom.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>25605</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11/05/2025</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>21:22:22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>B402</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>School3</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
